--- a/Optimize/Nodes.xlsx
+++ b/Optimize/Nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5c2fbe8304562b3/Desktop/PythonWorkspace/TrussCrossSectionOptimizer/Optimize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9580283B-42F7-4811-AFBC-5B3C1C53036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2F087CC-8F0F-4D12-8B1F-95C530E1D188}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9580283B-42F7-4811-AFBC-5B3C1C53036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A72257-4AEC-4909-8E4C-E742598F417E}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9307" xr2:uid="{796CC463-A253-4919-A757-71D6CCE838CF}"/>
+    <workbookView xWindow="44670" yWindow="4725" windowWidth="21600" windowHeight="11055" xr2:uid="{796CC463-A253-4919-A757-71D6CCE838CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Support</t>
-  </si>
-  <si>
-    <t>ForceMag</t>
-  </si>
-  <si>
-    <t>ForceDir</t>
   </si>
 </sst>
 </file>
@@ -103,6 +97,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6500837-82EE-4107-98AB-362A926EE4FE}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,14 +438,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>720</v>
       </c>
@@ -455,16 +447,10 @@
         <v>360</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>-100</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>720</v>
       </c>
@@ -472,16 +458,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>360</v>
       </c>
@@ -489,16 +469,10 @@
         <v>360</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>-100</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>360</v>
       </c>
@@ -506,16 +480,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -523,16 +491,10 @@
         <v>360</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -540,13 +502,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Optimize/Nodes.xlsx
+++ b/Optimize/Nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5c2fbe8304562b3/Desktop/PythonWorkspace/TrussCrossSectionOptimizer/Optimize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9580283B-42F7-4811-AFBC-5B3C1C53036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A72257-4AEC-4909-8E4C-E742598F417E}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{9580283B-42F7-4811-AFBC-5B3C1C53036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B16CD45C-4A60-4CDF-90DD-1BAEF5288B46}"/>
   <bookViews>
-    <workbookView xWindow="44670" yWindow="4725" windowWidth="21600" windowHeight="11055" xr2:uid="{796CC463-A253-4919-A757-71D6CCE838CF}"/>
+    <workbookView xWindow="43080" yWindow="3135" windowWidth="29040" windowHeight="15720" xr2:uid="{796CC463-A253-4919-A757-71D6CCE838CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -46,15 +46,25 @@
   <si>
     <t>Support</t>
   </si>
+  <si>
+    <t>Number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6500837-82EE-4107-98AB-362A926EE4FE}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,71 +449,1059 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>720</v>
-      </c>
-      <c r="B2">
-        <v>360</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>720</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>360</v>
-      </c>
-      <c r="B4">
-        <v>360</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>360</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>360</v>
-      </c>
-      <c r="C6">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>276</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>228</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>228</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>234</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>234</v>
+      </c>
+      <c r="B8" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>276</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>228</v>
+      </c>
+      <c r="B12" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>117</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>154</v>
+      </c>
+      <c r="B15" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>98.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>135.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>172.5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>181.75</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>98.5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>117</v>
+      </c>
+      <c r="B24" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>135.5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>154</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>191</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>52.25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>200.25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>33.75</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>181.75</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>163.25</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>70.75</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>52.25</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>226.5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>226.5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>192.5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>192.5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>189.5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>189.5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>228</v>
+      </c>
+      <c r="B47" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>228</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>234</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>234</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>255</v>
+      </c>
+      <c r="B52" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>255</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="B54" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="B55" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>22.562000000000001</v>
+      </c>
+      <c r="B56" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>28.875</v>
+      </c>
+      <c r="B57" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>35.188000000000002</v>
+      </c>
+      <c r="B58" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>22.562000000000001</v>
+      </c>
+      <c r="B59" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>28.875</v>
+      </c>
+      <c r="B60" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>35.188000000000002</v>
+      </c>
+      <c r="B61" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>217.75</v>
+      </c>
+      <c r="B62" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>211.43799999999999</v>
+      </c>
+      <c r="B63" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>205.125</v>
+      </c>
+      <c r="B64" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>198.81200000000001</v>
+      </c>
+      <c r="B65" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>70.75</v>
+      </c>
+      <c r="B66" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>89.25</v>
+      </c>
+      <c r="B68" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>107.75</v>
+      </c>
+      <c r="B69" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>126.25</v>
+      </c>
+      <c r="B70" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>144.75</v>
+      </c>
+      <c r="B71" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>163.25</v>
+      </c>
+      <c r="B72" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>172.5</v>
+      </c>
+      <c r="B73" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>246</v>
+      </c>
+      <c r="B74" s="1">
+        <v>20.356999999999999</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="B75" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>234</v>
+      </c>
+      <c r="B76" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
